--- a/docs/EmulacaoBancoDeDados3.xlsx
+++ b/docs/EmulacaoBancoDeDados3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24576" windowHeight="9864" activeTab="8"/>
+    <workbookView windowWidth="24576" windowHeight="9420" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Agendamento" sheetId="1" r:id="rId1"/>
@@ -62,6 +62,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Matheus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Não compensa procurar estas informações via vinculo, pois aumenta a query de pesquisa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Matheus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Não compensa procurar estas informações via vinculo, pois aumenta a query de pesquisa
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -72,7 +117,40 @@
     <author>Matheus</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Matheus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Chave secundária para ser usada nos relacionamentos
+Padrão: Utilizado para facilitar a identificação do paciente, utiliza o formato 'UUUYYMMDDHHNNZ', onde UUU correspone à unidade onde foi cadastrado, YY o ano, MM o mês, DD o dia, HH a hora, NN o minuto e Z o dígito mais à esquerda do milissegundo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Matheus</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,71 +200,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>data_hora_inicio</t>
+  </si>
+  <si>
+    <t>data_hora_fim</t>
+  </si>
+  <si>
+    <t>observacao</t>
+  </si>
+  <si>
+    <t>paciente_codigo</t>
+  </si>
+  <si>
+    <t>responsavel_codigo</t>
+  </si>
+  <si>
+    <t>profissional_codigo</t>
+  </si>
+  <si>
+    <t>recepcionista_codigo</t>
+  </si>
+  <si>
+    <t>sala</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>exame</t>
+  </si>
+  <si>
+    <t>finalizado</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>consulta</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>GOY</t>
+  </si>
+  <si>
     <t>data_hora_criacao</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>data_hora_inicio</t>
-  </si>
-  <si>
-    <t>data_hora_fim</t>
-  </si>
-  <si>
-    <t>observacao</t>
-  </si>
-  <si>
-    <t>pagamento_id</t>
-  </si>
-  <si>
-    <t>paciente_id</t>
-  </si>
-  <si>
-    <t>responsavel_id</t>
-  </si>
-  <si>
-    <t>avaliador_id</t>
-  </si>
-  <si>
-    <t>recepcionista_id</t>
-  </si>
-  <si>
-    <t>sala</t>
+    <t>documento_id</t>
+  </si>
+  <si>
+    <t>anotacoes</t>
+  </si>
+  <si>
+    <t>Foi notado que o paciente possui sensibilidade a luz</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>convenio</t>
+  </si>
+  <si>
+    <t>caminho</t>
+  </si>
+  <si>
+    <t>contrato</t>
+  </si>
+  <si>
+    <t>docs/ANA25010112305/contratos/contrato1.pdf</t>
+  </si>
+  <si>
+    <t>diagnostico</t>
+  </si>
+  <si>
+    <t>docs/ANA25010112305/diagnosticos/diagnosticoexterno.pdf</t>
+  </si>
+  <si>
+    <t>docs/ANA25010112305/diagnosticos/diagnosticointerno.pdf</t>
+  </si>
+  <si>
+    <t>docs/GOY02020445678/contratos/contrato1.pdf</t>
+  </si>
+  <si>
+    <t>docs/GOY02020445678/diagnosticos/diagnosticoexterno.pdf</t>
+  </si>
+  <si>
+    <t>docs/GOY02020445678/diagnosticos/diagnosticointerno.pdf</t>
+  </si>
+  <si>
+    <t>docs/AGO03030567890/contratos/contrato1.pdf</t>
+  </si>
+  <si>
+    <t>docs/RIV04040678901/contratos/contrato1.pdf</t>
   </si>
   <si>
     <t>codigo</t>
   </si>
   <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>documento_id</t>
-  </si>
-  <si>
-    <t>profissional_id</t>
-  </si>
-  <si>
-    <t>anotacao</t>
-  </si>
-  <si>
-    <t>ativo</t>
-  </si>
-  <si>
-    <t>convenio</t>
-  </si>
-  <si>
-    <t>caminho</t>
-  </si>
-  <si>
-    <t>unidade</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -235,12 +370,159 @@
     <t>observacoes</t>
   </si>
   <si>
+    <t>ANA25010112305</t>
+  </si>
+  <si>
+    <t>Mario Mario</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Anápolis</t>
+  </si>
+  <si>
+    <t>Unimed</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Rua do Gato Bonifácio</t>
+  </si>
+  <si>
+    <t>Casa que parece um sapato</t>
+  </si>
+  <si>
+    <t>Possui sensibilidade a sons altos</t>
+  </si>
+  <si>
+    <t>GOY02020445678</t>
+  </si>
+  <si>
+    <t>João Silva</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Goiânia</t>
+  </si>
+  <si>
+    <t>Bradesco</t>
+  </si>
+  <si>
+    <t>Setor Bueno</t>
+  </si>
+  <si>
+    <t>Avenida Goiás</t>
+  </si>
+  <si>
+    <t>Apartamento 203</t>
+  </si>
+  <si>
+    <t>Alergia a amendoins</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>AGO03030567890</t>
+  </si>
+  <si>
+    <t>Ana Souza</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Aparecida de Goiânia</t>
+  </si>
+  <si>
+    <t>Hapvida</t>
+  </si>
+  <si>
+    <t>Jardim das Acácias</t>
+  </si>
+  <si>
+    <t>Rua dos Jasmins</t>
+  </si>
+  <si>
+    <t>Sobrado com jardim</t>
+  </si>
+  <si>
+    <t>Prática de zumba</t>
+  </si>
+  <si>
+    <t>RIV</t>
+  </si>
+  <si>
+    <t>RIV04040678901</t>
+  </si>
+  <si>
+    <t>Carla Rocha</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Rio Verde</t>
+  </si>
+  <si>
+    <t>Sulamérica</t>
+  </si>
+  <si>
+    <t>Vila Boa</t>
+  </si>
+  <si>
+    <t>Rua do Sol</t>
+  </si>
+  <si>
+    <t>Prédio comercial</t>
+  </si>
+  <si>
+    <t>Intolerância à lactose</t>
+  </si>
+  <si>
     <t>valor</t>
   </si>
   <si>
     <t>descricao</t>
   </si>
   <si>
+    <t>200,00</t>
+  </si>
+  <si>
+    <t>avaliacao</t>
+  </si>
+  <si>
+    <t>avaliação dia 1/1/2025</t>
+  </si>
+  <si>
+    <t>200,01</t>
+  </si>
+  <si>
+    <t>2.000,00</t>
+  </si>
+  <si>
+    <t>garrafa da agua</t>
+  </si>
+  <si>
+    <t>garrafa da torneira</t>
+  </si>
+  <si>
+    <t>avaliação dia 5/1/2025</t>
+  </si>
+  <si>
     <t>funcao</t>
   </si>
   <si>
@@ -250,6 +532,54 @@
     <t>senha</t>
   </si>
   <si>
+    <t>Ronalda da silva</t>
+  </si>
+  <si>
+    <t>interno</t>
+  </si>
+  <si>
+    <t>recepcionista</t>
+  </si>
+  <si>
+    <t>recepcao01@outlook.com</t>
+  </si>
+  <si>
+    <t>senha123</t>
+  </si>
+  <si>
+    <t>Lucas dos santos</t>
+  </si>
+  <si>
+    <t>externo</t>
+  </si>
+  <si>
+    <t>avaliador</t>
+  </si>
+  <si>
+    <t>lucas@gmail.com</t>
+  </si>
+  <si>
+    <t>lucas@456</t>
+  </si>
+  <si>
+    <t>Beatriz Martins</t>
+  </si>
+  <si>
+    <t>beatriz.martins@mail.com</t>
+  </si>
+  <si>
+    <t>beatriz@123</t>
+  </si>
+  <si>
+    <t>Gabriel Souza</t>
+  </si>
+  <si>
+    <t>gabriel.souza@mail.com</t>
+  </si>
+  <si>
+    <t>gabriel@456</t>
+  </si>
+  <si>
     <t>estado_civil</t>
   </si>
   <si>
@@ -263,6 +593,135 @@
   </si>
   <si>
     <t>celular</t>
+  </si>
+  <si>
+    <t>Roberto Gomes da Mata</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Mecanico</t>
+  </si>
+  <si>
+    <t>62 12341234</t>
+  </si>
+  <si>
+    <t>63 12341234</t>
+  </si>
+  <si>
+    <t>mecanicomata@outlook.com</t>
+  </si>
+  <si>
+    <t>Roberta Gomes da Mata</t>
+  </si>
+  <si>
+    <t>Dona de casa</t>
+  </si>
+  <si>
+    <t>63 12341434</t>
+  </si>
+  <si>
+    <t>donamata@outlook.com</t>
+  </si>
+  <si>
+    <t>Carlos Silva</t>
+  </si>
+  <si>
+    <t>Empresário</t>
+  </si>
+  <si>
+    <t>62 98765432</t>
+  </si>
+  <si>
+    <t>63 98765432</t>
+  </si>
+  <si>
+    <t>carlos.silva@mail.com</t>
+  </si>
+  <si>
+    <t>Maria Silva</t>
+  </si>
+  <si>
+    <t>Professora</t>
+  </si>
+  <si>
+    <t>62 98765433</t>
+  </si>
+  <si>
+    <t>63 98765433</t>
+  </si>
+  <si>
+    <t>maria.silva@mail.com</t>
+  </si>
+  <si>
+    <t>Lucas Souza</t>
+  </si>
+  <si>
+    <t>Engenheiro</t>
+  </si>
+  <si>
+    <t>62 11223344</t>
+  </si>
+  <si>
+    <t>63 11223345</t>
+  </si>
+  <si>
+    <t>lucas.souza@mail.com</t>
+  </si>
+  <si>
+    <t>Fernanda Souza</t>
+  </si>
+  <si>
+    <t>Médica</t>
+  </si>
+  <si>
+    <t>62 11223346</t>
+  </si>
+  <si>
+    <t>63 11223347</t>
+  </si>
+  <si>
+    <t>fernanda.souza@mail.com</t>
+  </si>
+  <si>
+    <t>Marcos Rocha</t>
+  </si>
+  <si>
+    <t>Advogado</t>
+  </si>
+  <si>
+    <t>62 22334455</t>
+  </si>
+  <si>
+    <t>63 22334456</t>
+  </si>
+  <si>
+    <t>marcos.rocha@mail.com</t>
+  </si>
+  <si>
+    <t>Juliana Rocha</t>
+  </si>
+  <si>
+    <t>Casada</t>
+  </si>
+  <si>
+    <t>Psicóloga</t>
+  </si>
+  <si>
+    <t>62 22334457</t>
+  </si>
+  <si>
+    <t>63 22334458</t>
+  </si>
+  <si>
+    <t>juliana.rocha@mail.com</t>
+  </si>
+  <si>
+    <t>pai</t>
+  </si>
+  <si>
+    <t>mãe</t>
   </si>
 </sst>
 </file>
@@ -889,12 +1348,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -948,7 +1428,220 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="95">
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1215,34 +1908,34 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="77"/>
+      <tableStyleElement type="headerRow" dxfId="76"/>
+      <tableStyleElement type="totalRow" dxfId="75"/>
+      <tableStyleElement type="firstColumn" dxfId="74"/>
+      <tableStyleElement type="lastColumn" dxfId="73"/>
+      <tableStyleElement type="firstRowStripe" dxfId="72"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="71"/>
     </tableStyle>
     <tableStyle name="TableStylePreset3_Accent5" pivot="0" count="7" xr9:uid="{C431203C-6E38-41F6-BEB3-C01E9ECA39FD}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="10"/>
-      <tableStyleElement type="lastColumn" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="84"/>
+      <tableStyleElement type="headerRow" dxfId="83"/>
+      <tableStyleElement type="totalRow" dxfId="82"/>
+      <tableStyleElement type="firstColumn" dxfId="81"/>
+      <tableStyleElement type="lastColumn" dxfId="80"/>
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="78"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
-      <tableStyleElement type="pageFieldValues" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="94"/>
+      <tableStyleElement type="totalRow" dxfId="93"/>
+      <tableStyleElement type="firstRowStripe" dxfId="92"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="91"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="90"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="89"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="88"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="87"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="86"/>
+      <tableStyleElement type="pageFieldValues" dxfId="85"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1254,139 +1947,139 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N2" insertRow="1" totalsRowShown="0">
-  <tableColumns count="14">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="3" name="status"/>
-    <tableColumn id="4" name="data_hora_inicio"/>
-    <tableColumn id="5" name="data_hora_fim"/>
-    <tableColumn id="6" name="observacao"/>
-    <tableColumn id="7" name="pagamento_id"/>
-    <tableColumn id="8" name="paciente_id"/>
-    <tableColumn id="9" name="responsavel_id"/>
-    <tableColumn id="10" name="avaliador_id"/>
-    <tableColumn id="11" name="recepcionista_id"/>
-    <tableColumn id="12" name="sala"/>
-    <tableColumn id="13" name="codigo"/>
-    <tableColumn id="14" name="tipo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L4" totalsRowShown="0">
+  <tableColumns count="12">
+    <tableColumn id="1" name="id" dataDxfId="0"/>
+    <tableColumn id="14" name="tipo" dataDxfId="1"/>
+    <tableColumn id="3" name="status" dataDxfId="2"/>
+    <tableColumn id="4" name="data_hora_inicio" dataDxfId="3"/>
+    <tableColumn id="5" name="data_hora_fim" dataDxfId="4"/>
+    <tableColumn id="6" name="observacao" dataDxfId="5"/>
+    <tableColumn id="8" name="paciente_codigo" dataDxfId="6"/>
+    <tableColumn id="9" name="responsavel_codigo" dataDxfId="7"/>
+    <tableColumn id="10" name="profissional_codigo" dataDxfId="8"/>
+    <tableColumn id="11" name="recepcionista_codigo" dataDxfId="9"/>
+    <tableColumn id="12" name="sala" dataDxfId="10"/>
+    <tableColumn id="13" name="unidade" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I2" insertRow="1" totalsRowShown="0">
-  <tableColumns count="9">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="3" name="documento_id"/>
-    <tableColumn id="4" name="paciente_id"/>
-    <tableColumn id="5" name="profissional_id"/>
-    <tableColumn id="6" name="data_hora_inicio"/>
-    <tableColumn id="7" name="data_hora_fim"/>
-    <tableColumn id="8" name="anotacao"/>
-    <tableColumn id="9" name="status"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J3" totalsRowShown="0">
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="12"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="13"/>
+    <tableColumn id="3" name="documento_id" dataDxfId="14"/>
+    <tableColumn id="4" name="paciente_codigo" dataDxfId="15"/>
+    <tableColumn id="5" name="profissional_codigo" dataDxfId="16"/>
+    <tableColumn id="6" name="data_hora_inicio" dataDxfId="17"/>
+    <tableColumn id="7" name="data_hora_fim" dataDxfId="18"/>
+    <tableColumn id="8" name="anotacoes" dataDxfId="19"/>
+    <tableColumn id="9" name="status" dataDxfId="20"/>
+    <tableColumn id="10" name="tipo" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F2" insertRow="1" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="3" name="ativo"/>
-    <tableColumn id="4" name="responsavel_id"/>
-    <tableColumn id="5" name="convenio"/>
-    <tableColumn id="6" name="documento_id"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G5" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="1" name="id" dataDxfId="22"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="23"/>
+    <tableColumn id="3" name="ativo" dataDxfId="24"/>
+    <tableColumn id="4" name="responsavel_codigo" dataDxfId="25"/>
+    <tableColumn id="5" name="convenio" dataDxfId="26"/>
+    <tableColumn id="6" name="documento_id" dataDxfId="27"/>
+    <tableColumn id="7" name="unidade" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G9" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="data_hora_criacao"/>
     <tableColumn id="3" name="ativo"/>
     <tableColumn id="4" name="tipo"/>
     <tableColumn id="5" name="caminho"/>
-    <tableColumn id="6" name="paciente_id"/>
-    <tableColumn id="7" name="profissional_id"/>
+    <tableColumn id="6" name="paciente_codigo"/>
+    <tableColumn id="7" name="profissional_codigo"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:V2" insertRow="1" totalsRowShown="0">
-  <tableColumns count="22">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="3" name="ativo"/>
-    <tableColumn id="4" name="unidade"/>
-    <tableColumn id="5" name="codigo"/>
-    <tableColumn id="6" name="nome"/>
-    <tableColumn id="7" name="nome_curto"/>
-    <tableColumn id="8" name="sexo"/>
-    <tableColumn id="9" name="data_nascimento"/>
-    <tableColumn id="10" name="local_nascimento"/>
-    <tableColumn id="11" name="certidao_nascimento"/>
-    <tableColumn id="12" name="cpf"/>
-    <tableColumn id="13" name="convenio"/>
-    <tableColumn id="14" name="numero_convenio"/>
-    <tableColumn id="15" name="cep"/>
-    <tableColumn id="16" name="uf"/>
-    <tableColumn id="17" name="cidade"/>
-    <tableColumn id="18" name="bairro"/>
-    <tableColumn id="19" name="logadouro"/>
-    <tableColumn id="20" name="numero"/>
-    <tableColumn id="21" name="complemento"/>
-    <tableColumn id="22" name="observacoes"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:U5" totalsRowShown="0">
+  <tableColumns count="21">
+    <tableColumn id="1" name="id" dataDxfId="29"/>
+    <tableColumn id="3" name="ativo" dataDxfId="30"/>
+    <tableColumn id="4" name="unidade" dataDxfId="31"/>
+    <tableColumn id="5" name="codigo" dataDxfId="32"/>
+    <tableColumn id="6" name="nome" dataDxfId="33"/>
+    <tableColumn id="7" name="nome_curto" dataDxfId="34"/>
+    <tableColumn id="8" name="sexo" dataDxfId="35"/>
+    <tableColumn id="9" name="data_nascimento" dataDxfId="36"/>
+    <tableColumn id="10" name="local_nascimento" dataDxfId="37"/>
+    <tableColumn id="11" name="certidao_nascimento" dataDxfId="38"/>
+    <tableColumn id="12" name="cpf" dataDxfId="39"/>
+    <tableColumn id="13" name="convenio" dataDxfId="40"/>
+    <tableColumn id="14" name="numero_convenio" dataDxfId="41"/>
+    <tableColumn id="15" name="cep" dataDxfId="42"/>
+    <tableColumn id="16" name="uf" dataDxfId="43"/>
+    <tableColumn id="17" name="cidade" dataDxfId="44"/>
+    <tableColumn id="18" name="bairro" dataDxfId="45"/>
+    <tableColumn id="19" name="logadouro" dataDxfId="46"/>
+    <tableColumn id="20" name="numero" dataDxfId="47"/>
+    <tableColumn id="21" name="complemento" dataDxfId="48"/>
+    <tableColumn id="22" name="observacoes" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F2" insertRow="1" totalsRowShown="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="3" name="responsavel_id"/>
-    <tableColumn id="4" name="valor"/>
-    <tableColumn id="5" name="tipo"/>
-    <tableColumn id="6" name="descricao"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G6" totalsRowShown="0">
+  <tableColumns count="7">
+    <tableColumn id="1" name="id" dataDxfId="50"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="51"/>
+    <tableColumn id="3" name="responsavel_codigo" dataDxfId="52"/>
+    <tableColumn id="4" name="valor" dataDxfId="53"/>
+    <tableColumn id="5" name="tipo" dataDxfId="54"/>
+    <tableColumn id="6" name="descricao" dataDxfId="55"/>
+    <tableColumn id="7" name="unidade" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:I2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:I5" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="3" name="ativo"/>
-    <tableColumn id="4" name="nome"/>
-    <tableColumn id="5" name="cpf"/>
-    <tableColumn id="6" name="tipo"/>
-    <tableColumn id="7" name="funcao"/>
-    <tableColumn id="8" name="email"/>
-    <tableColumn id="9" name="senha"/>
+    <tableColumn id="1" name="id" dataDxfId="57"/>
+    <tableColumn id="3" name="ativo" dataDxfId="58"/>
+    <tableColumn id="4" name="nome" dataDxfId="59"/>
+    <tableColumn id="5" name="cpf" dataDxfId="60"/>
+    <tableColumn id="6" name="tipo" dataDxfId="61"/>
+    <tableColumn id="7" name="funcao" dataDxfId="62"/>
+    <tableColumn id="8" name="email" dataDxfId="63"/>
+    <tableColumn id="9" name="senha" dataDxfId="64"/>
+    <tableColumn id="10" name="codigo" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:R2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:R9" totalsRowShown="0">
   <tableColumns count="18">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
+    <tableColumn id="19" name="codigo"/>
     <tableColumn id="3" name="ativo"/>
     <tableColumn id="4" name="nome"/>
     <tableColumn id="5" name="estado_civil"/>
@@ -1409,13 +2102,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:E2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:E9" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="3" name="paciente_id"/>
-    <tableColumn id="4" name="responsavel_id"/>
-    <tableColumn id="5" name="tipo"/>
+    <tableColumn id="1" name="id" dataDxfId="66"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="67"/>
+    <tableColumn id="3" name="paciente_codigo" dataDxfId="68"/>
+    <tableColumn id="4" name="responsavel_codigo" dataDxfId="69"/>
+    <tableColumn id="5" name="tipo" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1679,31 +2372,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="6.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.7777777777778" customWidth="1"/>
-    <col min="10" max="10" width="12.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="4.88888888888889" customWidth="1"/>
-    <col min="13" max="13" width="7.33333333333333" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.55555555555556" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.55555555555556" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.6666666666667" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.5555555555556" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.4444444444444" style="7" customWidth="1"/>
+    <col min="9" max="9" width="19" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20.6666666666667" style="7" customWidth="1"/>
+    <col min="11" max="11" width="4.88888888888889" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.55555555555556" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.33333333333333" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.33333333333333" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.88888888888889" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,11 +2434,119 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45658</v>
+      </c>
+      <c r="E2" s="7">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45689</v>
+      </c>
+      <c r="E3" s="7">
+        <v>45689</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45778</v>
+      </c>
+      <c r="E4" s="7">
+        <v>45778</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1760,40 +2562,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="14.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="16.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="9.55555555555556" customWidth="1"/>
-    <col min="9" max="9" width="6.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5555555555556" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5555555555556" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.5555555555556" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.55555555555556" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1802,10 +2606,77 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45778</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45689</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45689</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45689</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1820,40 +2691,137 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="9.44444444444444" customWidth="1"/>
-    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.11111111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.44444444444444" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5555555555556" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.55555555555556" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45689</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +2836,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1885,27 +2853,211 @@
     <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45778</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45658</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>45778</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>45689</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45689</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>45689</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
+      <c r="B8">
+        <v>45689</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>45689</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1920,111 +3072,369 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="8.55555555555556" customWidth="1"/>
-    <col min="5" max="5" width="7.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="6.55555555555556" customWidth="1"/>
-    <col min="7" max="7" width="12.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="5.44444444444444" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="17.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="20.5555555555556" customWidth="1"/>
-    <col min="12" max="12" width="4.33333333333333" customWidth="1"/>
-    <col min="13" max="13" width="9.44444444444444" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="4.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="3.44444444444444" customWidth="1"/>
-    <col min="17" max="17" width="7.22222222222222" customWidth="1"/>
-    <col min="18" max="18" width="6.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="10.4444444444444" customWidth="1"/>
-    <col min="20" max="20" width="8.33333333333333" customWidth="1"/>
-    <col min="21" max="21" width="13.8888888888889" customWidth="1"/>
-    <col min="22" max="22" width="12.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.11111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.55555555555556" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.2222222222222" style="2" customWidth="1"/>
+    <col min="7" max="7" width="5.44444444444444" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.5555555555556" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.22222222222222" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20" style="2" customWidth="1"/>
+    <col min="17" max="17" width="17.6666666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.2222222222222" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.33333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="25.7777777777778" style="2" customWidth="1"/>
+    <col min="21" max="22" width="29.7777777777778" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2">
+        <v>37987</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2">
+        <v>123123123</v>
+      </c>
+      <c r="K2" s="2">
+        <v>12312312312</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="2">
+        <v>123123</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12312312</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="2">
+        <v>123</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2">
+        <v>40211</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2">
+        <v>223344556</v>
+      </c>
+      <c r="K3" s="2">
+        <v>98765432100</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="2">
+        <v>987654</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45678901</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="S3" s="2">
+        <v>456</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="2">
+        <v>41701</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="2">
+        <v>334455667</v>
+      </c>
+      <c r="K4" s="2">
+        <v>11223344556</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="2">
+        <v>334455</v>
+      </c>
+      <c r="N4" s="2">
+        <v>78901234</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="2">
+        <v>789</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="2">
+        <v>39542</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="2">
+        <v>445566778</v>
+      </c>
+      <c r="K5" s="2">
+        <v>99887766554</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="2">
+        <v>445566</v>
+      </c>
+      <c r="N5" s="2">
+        <v>89012345</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="2">
+        <v>101</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2032,40 +3442,145 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="5.88888888888889" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="9.55555555555556" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.66666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.8888888888889" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.55555555555556" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45689</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45748</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45778</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2080,52 +3595,157 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="6.55555555555556" customWidth="1"/>
-    <col min="5" max="5" width="4.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="7.55555555555556" customWidth="1"/>
-    <col min="8" max="8" width="6.22222222222222" customWidth="1"/>
-    <col min="9" max="9" width="6.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.11111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.1111111111111" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12612312</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12712312</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="6">
+        <v>12812312</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12912312</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2141,88 +3761,512 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="26.8888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="6.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="7.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="6.11111111111111" customWidth="1"/>
+    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
-    <col min="7" max="7" width="4.33333333333333" customWidth="1"/>
-    <col min="8" max="8" width="3.33333333333333" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.22222222222222" customWidth="1"/>
-    <col min="11" max="11" width="6.22222222222222" customWidth="1"/>
-    <col min="12" max="12" width="4.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="3.44444444444444" customWidth="1"/>
-    <col min="14" max="14" width="7.22222222222222" customWidth="1"/>
-    <col min="15" max="15" width="6.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="10.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
+    <col min="9" max="10" width="12.4444444444444" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="4.22222222222222" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="15.8888888888889" customWidth="1"/>
+    <col min="16" max="16" width="21.2222222222222" customWidth="1"/>
     <col min="17" max="17" width="8.33333333333333" customWidth="1"/>
-    <col min="18" max="18" width="13.8888888888889" customWidth="1"/>
+    <col min="18" max="18" width="25.7777777777778" customWidth="1"/>
+    <col min="19" max="16384" width="26.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:18">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
+      <c r="H1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2">
+        <v>12412412</v>
+      </c>
+      <c r="H2">
+        <v>8238932</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2">
+        <v>12312312</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3">
+        <v>12412415</v>
+      </c>
+      <c r="H3">
+        <v>8238934</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3">
+        <v>12312312</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3">
+        <v>123</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12512512</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8348573</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="5">
+        <v>22334455</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>456</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="5">
+        <v>12512513</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8348574</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="5">
+        <v>22334455</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>456</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12612612</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8234567</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="5">
+        <v>33445566</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>789</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12612613</v>
+      </c>
+      <c r="H7" s="5">
+        <v>8234568</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="5">
+        <v>33445566</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>789</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12712712</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8456789</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="5">
+        <v>44556677</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>101</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12712713</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8456790</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9" s="5">
+        <v>44556677</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>101</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2237,19 +4281,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="11.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.2222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.4444444444444" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.22222222222222" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -2257,16 +4302,152 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45658</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45689</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45689</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45717</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45717</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45748</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
+      <c r="B9" s="3">
+        <v>45748</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/docs/EmulacaoBancoDeDados3.xlsx
+++ b/docs/EmulacaoBancoDeDados3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24576" windowHeight="9420" activeTab="8"/>
+    <workbookView windowWidth="24576" windowHeight="9864" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Agendamento" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Matheus</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,6 +117,38 @@
     <author>Matheus</author>
   </authors>
   <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Matheus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Apenas o Gabiatti (avaliador indicativo) ou um recepcionista pode anexar documentos</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Matheus</author>
+  </authors>
+  <commentList>
     <comment ref="D1" authorId="0">
       <text>
         <r>
@@ -144,13 +176,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Matheus</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,11 +232,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>unidade</t>
+  </si>
+  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -235,13 +270,13 @@
     <t>sala</t>
   </si>
   <si>
-    <t>unidade</t>
-  </si>
-  <si>
-    <t>exame</t>
-  </si>
-  <si>
-    <t>finalizado</t>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>Exame</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
   </si>
   <si>
     <t>...</t>
@@ -250,73 +285,52 @@
     <t>01</t>
   </si>
   <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>consulta</t>
+    <t>GOY</t>
+  </si>
+  <si>
+    <t>Avaliação Diagnóstica</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
-    <t>GOY</t>
+    <t>Avaliação Indicativa</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>anotacoes</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>data_hora_criacao</t>
   </si>
   <si>
+    <t>ativo</t>
+  </si>
+  <si>
+    <t>convenio</t>
+  </si>
+  <si>
     <t>documento_id</t>
   </si>
   <si>
-    <t>anotacoes</t>
-  </si>
-  <si>
-    <t>Foi notado que o paciente possui sensibilidade a luz</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ativo</t>
-  </si>
-  <si>
-    <t>convenio</t>
-  </si>
-  <si>
     <t>caminho</t>
   </si>
   <si>
-    <t>contrato</t>
-  </si>
-  <si>
-    <t>docs/ANA25010112305/contratos/contrato1.pdf</t>
-  </si>
-  <si>
-    <t>diagnostico</t>
-  </si>
-  <si>
-    <t>docs/ANA25010112305/diagnosticos/diagnosticoexterno.pdf</t>
-  </si>
-  <si>
-    <t>docs/ANA25010112305/diagnosticos/diagnosticointerno.pdf</t>
-  </si>
-  <si>
-    <t>docs/GOY02020445678/contratos/contrato1.pdf</t>
-  </si>
-  <si>
-    <t>docs/GOY02020445678/diagnosticos/diagnosticoexterno.pdf</t>
-  </si>
-  <si>
-    <t>docs/GOY02020445678/diagnosticos/diagnosticointerno.pdf</t>
-  </si>
-  <si>
-    <t>docs/AGO03030567890/contratos/contrato1.pdf</t>
-  </si>
-  <si>
-    <t>docs/RIV04040678901/contratos/contrato1.pdf</t>
+    <t>Indicação</t>
+  </si>
+  <si>
+    <t>pacientes/Convenio1/GOY02020445678/Avaliacoes/indicacao.pdf</t>
+  </si>
+  <si>
+    <t>Laudo</t>
+  </si>
+  <si>
+    <t>pacientes/Convenio1/GOY02020445678/Laudos/laudo.pdf</t>
   </si>
   <si>
     <t>codigo</t>
@@ -502,7 +516,7 @@
     <t>200,00</t>
   </si>
   <si>
-    <t>avaliacao</t>
+    <t>Avaliação</t>
   </si>
   <si>
     <t>avaliação dia 1/1/2025</t>
@@ -514,31 +528,40 @@
     <t>2.000,00</t>
   </si>
   <si>
+    <t>Consumo</t>
+  </si>
+  <si>
     <t>garrafa da agua</t>
   </si>
   <si>
     <t>garrafa da torneira</t>
   </si>
   <si>
-    <t>avaliação dia 5/1/2025</t>
+    <t>avaliação dia 1/5/2025</t>
+  </si>
+  <si>
+    <t>Gabiatti</t>
   </si>
   <si>
     <t>funcao</t>
   </si>
   <si>
+    <t>funcao_especifica</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
     <t>senha</t>
   </si>
   <si>
-    <t>Ronalda da silva</t>
-  </si>
-  <si>
-    <t>interno</t>
-  </si>
-  <si>
-    <t>recepcionista</t>
+    <t>Ronalda da Silva</t>
+  </si>
+  <si>
+    <t>Interno</t>
+  </si>
+  <si>
+    <t>Recepcionista</t>
   </si>
   <si>
     <t>recepcao01@outlook.com</t>
@@ -547,13 +570,16 @@
     <t>senha123</t>
   </si>
   <si>
-    <t>Lucas dos santos</t>
-  </si>
-  <si>
-    <t>externo</t>
-  </si>
-  <si>
-    <t>avaliador</t>
+    <t>Lucas dos Santos</t>
+  </si>
+  <si>
+    <t>Externo</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
+    <t>Ortopedista</t>
   </si>
   <si>
     <t>lucas@gmail.com</t>
@@ -565,6 +591,12 @@
     <t>Beatriz Martins</t>
   </si>
   <si>
+    <t>Avaliador</t>
+  </si>
+  <si>
+    <t>Neuro</t>
+  </si>
+  <si>
     <t>beatriz.martins@mail.com</t>
   </si>
   <si>
@@ -580,6 +612,15 @@
     <t>gabriel@456</t>
   </si>
   <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>gabiatti@gabiatti.com</t>
+  </si>
+  <si>
+    <t>gabiatti@321</t>
+  </si>
+  <si>
     <t>estado_civil</t>
   </si>
   <si>
@@ -718,21 +759,22 @@
     <t>juliana.rocha@mail.com</t>
   </si>
   <si>
-    <t>pai</t>
-  </si>
-  <si>
-    <t>mãe</t>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Mãe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -898,12 +940,18 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor theme="8" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1092,12 +1140,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1224,7 +1283,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1236,119 +1295,119 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,7 +1417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1371,6 +1430,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1428,7 +1496,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="92">
     <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -1445,6 +1513,7 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
@@ -1622,15 +1691,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1908,34 +1969,34 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="77"/>
-      <tableStyleElement type="headerRow" dxfId="76"/>
-      <tableStyleElement type="totalRow" dxfId="75"/>
-      <tableStyleElement type="firstColumn" dxfId="74"/>
-      <tableStyleElement type="lastColumn" dxfId="73"/>
-      <tableStyleElement type="firstRowStripe" dxfId="72"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="71"/>
+      <tableStyleElement type="wholeTable" dxfId="74"/>
+      <tableStyleElement type="headerRow" dxfId="73"/>
+      <tableStyleElement type="totalRow" dxfId="72"/>
+      <tableStyleElement type="firstColumn" dxfId="71"/>
+      <tableStyleElement type="lastColumn" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="68"/>
     </tableStyle>
     <tableStyle name="TableStylePreset3_Accent5" pivot="0" count="7" xr9:uid="{C431203C-6E38-41F6-BEB3-C01E9ECA39FD}">
-      <tableStyleElement type="wholeTable" dxfId="84"/>
-      <tableStyleElement type="headerRow" dxfId="83"/>
-      <tableStyleElement type="totalRow" dxfId="82"/>
-      <tableStyleElement type="firstColumn" dxfId="81"/>
-      <tableStyleElement type="lastColumn" dxfId="80"/>
-      <tableStyleElement type="firstRowStripe" dxfId="79"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="78"/>
+      <tableStyleElement type="wholeTable" dxfId="81"/>
+      <tableStyleElement type="headerRow" dxfId="80"/>
+      <tableStyleElement type="totalRow" dxfId="79"/>
+      <tableStyleElement type="firstColumn" dxfId="78"/>
+      <tableStyleElement type="lastColumn" dxfId="77"/>
+      <tableStyleElement type="firstRowStripe" dxfId="76"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="75"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="94"/>
-      <tableStyleElement type="totalRow" dxfId="93"/>
-      <tableStyleElement type="firstRowStripe" dxfId="92"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="91"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="90"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="89"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="88"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="87"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="86"/>
-      <tableStyleElement type="pageFieldValues" dxfId="85"/>
+      <tableStyleElement type="headerRow" dxfId="91"/>
+      <tableStyleElement type="totalRow" dxfId="90"/>
+      <tableStyleElement type="firstRowStripe" dxfId="89"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="88"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="87"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="86"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="85"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="84"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="83"/>
+      <tableStyleElement type="pageFieldValues" dxfId="82"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1947,60 +2008,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L5" totalsRowShown="0">
   <tableColumns count="12">
     <tableColumn id="1" name="id" dataDxfId="0"/>
-    <tableColumn id="14" name="tipo" dataDxfId="1"/>
-    <tableColumn id="3" name="status" dataDxfId="2"/>
-    <tableColumn id="4" name="data_hora_inicio" dataDxfId="3"/>
-    <tableColumn id="5" name="data_hora_fim" dataDxfId="4"/>
-    <tableColumn id="6" name="observacao" dataDxfId="5"/>
-    <tableColumn id="8" name="paciente_codigo" dataDxfId="6"/>
-    <tableColumn id="9" name="responsavel_codigo" dataDxfId="7"/>
-    <tableColumn id="10" name="profissional_codigo" dataDxfId="8"/>
-    <tableColumn id="11" name="recepcionista_codigo" dataDxfId="9"/>
-    <tableColumn id="12" name="sala" dataDxfId="10"/>
-    <tableColumn id="13" name="unidade" dataDxfId="11"/>
+    <tableColumn id="13" name="unidade" dataDxfId="1"/>
+    <tableColumn id="14" name="tipo" dataDxfId="2"/>
+    <tableColumn id="3" name="status" dataDxfId="3"/>
+    <tableColumn id="4" name="data_hora_inicio" dataDxfId="4"/>
+    <tableColumn id="5" name="data_hora_fim" dataDxfId="5"/>
+    <tableColumn id="6" name="observacao" dataDxfId="6"/>
+    <tableColumn id="8" name="paciente_codigo" dataDxfId="7"/>
+    <tableColumn id="9" name="responsavel_codigo" dataDxfId="8"/>
+    <tableColumn id="10" name="profissional_codigo" dataDxfId="9"/>
+    <tableColumn id="11" name="recepcionista_codigo" dataDxfId="10"/>
+    <tableColumn id="12" name="sala" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J3" totalsRowShown="0">
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0">
+  <tableColumns count="7">
     <tableColumn id="1" name="id" dataDxfId="12"/>
-    <tableColumn id="2" name="data_hora_criacao" dataDxfId="13"/>
-    <tableColumn id="3" name="documento_id" dataDxfId="14"/>
-    <tableColumn id="4" name="paciente_codigo" dataDxfId="15"/>
-    <tableColumn id="5" name="profissional_codigo" dataDxfId="16"/>
-    <tableColumn id="6" name="data_hora_inicio" dataDxfId="17"/>
-    <tableColumn id="7" name="data_hora_fim" dataDxfId="18"/>
-    <tableColumn id="8" name="anotacoes" dataDxfId="19"/>
-    <tableColumn id="9" name="status" dataDxfId="20"/>
-    <tableColumn id="10" name="tipo" dataDxfId="21"/>
+    <tableColumn id="4" name="paciente_codigo" dataDxfId="13"/>
+    <tableColumn id="5" name="profissional_codigo" dataDxfId="14"/>
+    <tableColumn id="6" name="data_hora_inicio" dataDxfId="15"/>
+    <tableColumn id="7" name="data_hora_fim" dataDxfId="16"/>
+    <tableColumn id="8" name="anotacoes" dataDxfId="17"/>
+    <tableColumn id="9" name="status" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:G5" totalsRowShown="0">
-  <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="22"/>
-    <tableColumn id="2" name="data_hora_criacao" dataDxfId="23"/>
-    <tableColumn id="3" name="ativo" dataDxfId="24"/>
-    <tableColumn id="4" name="responsavel_codigo" dataDxfId="25"/>
-    <tableColumn id="5" name="convenio" dataDxfId="26"/>
-    <tableColumn id="6" name="documento_id" dataDxfId="27"/>
-    <tableColumn id="7" name="unidade" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H5" totalsRowShown="0">
+  <tableColumns count="8">
+    <tableColumn id="1" name="id" dataDxfId="19"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="20"/>
+    <tableColumn id="3" name="ativo" dataDxfId="21"/>
+    <tableColumn id="4" name="responsavel_codigo" dataDxfId="22"/>
+    <tableColumn id="8" name="paciente_codigo"/>
+    <tableColumn id="5" name="convenio" dataDxfId="23"/>
+    <tableColumn id="6" name="documento_id" dataDxfId="24"/>
+    <tableColumn id="7" name="unidade" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G9" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G3" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="data_hora_criacao"/>
@@ -2017,59 +2076,61 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:U5" totalsRowShown="0">
   <tableColumns count="21">
-    <tableColumn id="1" name="id" dataDxfId="29"/>
-    <tableColumn id="3" name="ativo" dataDxfId="30"/>
-    <tableColumn id="4" name="unidade" dataDxfId="31"/>
-    <tableColumn id="5" name="codigo" dataDxfId="32"/>
-    <tableColumn id="6" name="nome" dataDxfId="33"/>
-    <tableColumn id="7" name="nome_curto" dataDxfId="34"/>
-    <tableColumn id="8" name="sexo" dataDxfId="35"/>
-    <tableColumn id="9" name="data_nascimento" dataDxfId="36"/>
-    <tableColumn id="10" name="local_nascimento" dataDxfId="37"/>
-    <tableColumn id="11" name="certidao_nascimento" dataDxfId="38"/>
-    <tableColumn id="12" name="cpf" dataDxfId="39"/>
-    <tableColumn id="13" name="convenio" dataDxfId="40"/>
-    <tableColumn id="14" name="numero_convenio" dataDxfId="41"/>
-    <tableColumn id="15" name="cep" dataDxfId="42"/>
-    <tableColumn id="16" name="uf" dataDxfId="43"/>
-    <tableColumn id="17" name="cidade" dataDxfId="44"/>
-    <tableColumn id="18" name="bairro" dataDxfId="45"/>
-    <tableColumn id="19" name="logadouro" dataDxfId="46"/>
-    <tableColumn id="20" name="numero" dataDxfId="47"/>
-    <tableColumn id="21" name="complemento" dataDxfId="48"/>
-    <tableColumn id="22" name="observacoes" dataDxfId="49"/>
+    <tableColumn id="1" name="id" dataDxfId="26"/>
+    <tableColumn id="3" name="ativo" dataDxfId="27"/>
+    <tableColumn id="4" name="unidade" dataDxfId="28"/>
+    <tableColumn id="5" name="codigo" dataDxfId="29"/>
+    <tableColumn id="6" name="nome" dataDxfId="30"/>
+    <tableColumn id="7" name="nome_curto" dataDxfId="31"/>
+    <tableColumn id="8" name="sexo" dataDxfId="32"/>
+    <tableColumn id="9" name="data_nascimento" dataDxfId="33"/>
+    <tableColumn id="10" name="local_nascimento" dataDxfId="34"/>
+    <tableColumn id="11" name="certidao_nascimento" dataDxfId="35"/>
+    <tableColumn id="12" name="cpf" dataDxfId="36"/>
+    <tableColumn id="13" name="convenio" dataDxfId="37"/>
+    <tableColumn id="14" name="numero_convenio" dataDxfId="38"/>
+    <tableColumn id="15" name="cep" dataDxfId="39"/>
+    <tableColumn id="16" name="uf" dataDxfId="40"/>
+    <tableColumn id="17" name="cidade" dataDxfId="41"/>
+    <tableColumn id="18" name="bairro" dataDxfId="42"/>
+    <tableColumn id="19" name="logadouro" dataDxfId="43"/>
+    <tableColumn id="20" name="numero" dataDxfId="44"/>
+    <tableColumn id="21" name="complemento" dataDxfId="45"/>
+    <tableColumn id="22" name="observacoes" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:G7" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="id" dataDxfId="50"/>
-    <tableColumn id="2" name="data_hora_criacao" dataDxfId="51"/>
-    <tableColumn id="3" name="responsavel_codigo" dataDxfId="52"/>
-    <tableColumn id="4" name="valor" dataDxfId="53"/>
-    <tableColumn id="5" name="tipo" dataDxfId="54"/>
-    <tableColumn id="6" name="descricao" dataDxfId="55"/>
-    <tableColumn id="7" name="unidade" dataDxfId="56"/>
+    <tableColumn id="1" name="id" dataDxfId="47"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="48"/>
+    <tableColumn id="3" name="responsavel_codigo" dataDxfId="49"/>
+    <tableColumn id="4" name="valor" dataDxfId="50"/>
+    <tableColumn id="5" name="tipo" dataDxfId="51"/>
+    <tableColumn id="6" name="descricao" dataDxfId="52"/>
+    <tableColumn id="7" name="unidade" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:I5" totalsRowShown="0">
-  <tableColumns count="9">
-    <tableColumn id="1" name="id" dataDxfId="57"/>
-    <tableColumn id="3" name="ativo" dataDxfId="58"/>
-    <tableColumn id="4" name="nome" dataDxfId="59"/>
-    <tableColumn id="5" name="cpf" dataDxfId="60"/>
-    <tableColumn id="6" name="tipo" dataDxfId="61"/>
-    <tableColumn id="7" name="funcao" dataDxfId="62"/>
-    <tableColumn id="8" name="email" dataDxfId="63"/>
-    <tableColumn id="9" name="senha" dataDxfId="64"/>
-    <tableColumn id="10" name="codigo" dataDxfId="65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:K6" totalsRowShown="0">
+  <tableColumns count="11">
+    <tableColumn id="1" name="id" dataDxfId="54"/>
+    <tableColumn id="3" name="ativo" dataDxfId="55"/>
+    <tableColumn id="10" name="unidade"/>
+    <tableColumn id="10" name="codigo" dataDxfId="56"/>
+    <tableColumn id="4" name="nome" dataDxfId="57"/>
+    <tableColumn id="5" name="cpf" dataDxfId="58"/>
+    <tableColumn id="6" name="tipo" dataDxfId="59"/>
+    <tableColumn id="7" name="funcao" dataDxfId="60"/>
+    <tableColumn id="2" name="funcao_especifica"/>
+    <tableColumn id="8" name="email" dataDxfId="61"/>
+    <tableColumn id="9" name="senha" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2104,11 +2165,11 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:E9" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="66"/>
-    <tableColumn id="2" name="data_hora_criacao" dataDxfId="67"/>
-    <tableColumn id="3" name="paciente_codigo" dataDxfId="68"/>
-    <tableColumn id="4" name="responsavel_codigo" dataDxfId="69"/>
-    <tableColumn id="5" name="tipo" dataDxfId="70"/>
+    <tableColumn id="1" name="id" dataDxfId="63"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="64"/>
+    <tableColumn id="3" name="paciente_codigo" dataDxfId="65"/>
+    <tableColumn id="4" name="responsavel_codigo" dataDxfId="66"/>
+    <tableColumn id="5" name="tipo" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2372,29 +2433,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.55555555555556" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.55555555555556" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.6666666666667" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.5555555555556" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.4444444444444" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19" style="7" customWidth="1"/>
-    <col min="10" max="10" width="20.6666666666667" style="7" customWidth="1"/>
-    <col min="11" max="11" width="4.88888888888889" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.55555555555556" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.33333333333333" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.33333333333333" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.88888888888889" style="7"/>
+    <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.55555555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.55555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5555555555556" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.2222222222222" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.4444444444444" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.88888888888889" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.33333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.33333333333333" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -2436,118 +2497,159 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
         <v>45658</v>
       </c>
-      <c r="E2" s="7">
+      <c r="F2" s="3">
         <v>45658</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="E3" s="3">
+        <v>45689</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45689</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45778</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45778</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="7">
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45717</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45717</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45689</v>
-      </c>
-      <c r="E3" s="7">
-        <v>45689</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="I5" s="2">
         <v>3</v>
       </c>
-      <c r="I3" s="7">
-        <v>3</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
         <v>4</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7">
-        <v>45778</v>
-      </c>
-      <c r="E4" s="7">
-        <v>45778</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7">
-        <v>4</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="L5" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2562,121 +2664,91 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="$A1:$XFD1048576"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5555555555556" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.5555555555556" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.5555555555556" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.55555555555556" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="16.2222222222222" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="47.5555555555556" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45658</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45778</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>45689</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45689</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>45689</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45689</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45689</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45717</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45748</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2691,52 +2763,56 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.11111111111111" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.4444444444444" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44444444444444" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.5555555555556" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.55555555555556" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="2"/>
+    <col min="5" max="5" width="16.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.44444444444444" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5555555555556" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.55555555555556" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>45658</v>
       </c>
       <c r="C2" s="2" t="b">
@@ -2745,21 +2821,24 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>45689</v>
       </c>
       <c r="C3" s="2" t="b">
@@ -2768,21 +2847,24 @@
       <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>45717</v>
       </c>
       <c r="C4" s="2" t="b">
@@ -2791,22 +2873,25 @@
       <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>45748</v>
+      <c r="B5" s="3">
+        <v>45717</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
@@ -2814,14 +2899,17 @@
       <c r="D5" s="2">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2836,21 +2924,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="6.11111111111111" customWidth="1"/>
+    <col min="4" max="4" width="11.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="56.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:7">
@@ -2858,30 +2946,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>45778</v>
+      <c r="B2" s="3">
+        <v>45748</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -2893,178 +2981,42 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>45658</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="3">
+        <v>45748</v>
+      </c>
+      <c r="C3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>45778</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="G3" s="4">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>45689</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>45689</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>45689</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>45689</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>45689</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
+    </row>
+    <row r="4" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3074,8 +3026,8 @@
   <sheetPr/>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -3109,64 +3061,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3177,25 +3129,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
         <v>37987</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2">
         <v>123123123</v>
@@ -3204,7 +3156,7 @@
         <v>12312312312</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M2" s="2">
         <v>123123</v>
@@ -3213,25 +3165,25 @@
         <v>12312312</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="S2" s="2">
         <v>123</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -3242,25 +3194,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2">
         <v>40211</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2">
         <v>223344556</v>
@@ -3269,7 +3221,7 @@
         <v>98765432100</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M3" s="2">
         <v>987654</v>
@@ -3278,25 +3230,25 @@
         <v>45678901</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S3" s="2">
         <v>456</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -3307,25 +3259,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H4" s="2">
         <v>41701</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2">
         <v>334455667</v>
@@ -3334,7 +3286,7 @@
         <v>11223344556</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M4" s="2">
         <v>334455</v>
@@ -3343,25 +3295,25 @@
         <v>78901234</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="S4" s="2">
         <v>789</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -3372,25 +3324,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>39542</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2">
         <v>445566778</v>
@@ -3399,7 +3351,7 @@
         <v>99887766554</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2">
         <v>445566</v>
@@ -3408,25 +3360,25 @@
         <v>89012345</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="S5" s="2">
         <v>101</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3442,13 +3394,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" style="2" customWidth="1"/>
@@ -3465,89 +3417,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>45658</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>45689</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>45717</v>
       </c>
       <c r="C4" s="2">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>45748</v>
       </c>
       <c r="C5" s="2">
@@ -3557,30 +3518,59 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>45778</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45717</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3595,82 +3585,95 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.11111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.1111111111111" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="2"/>
+    <col min="3" max="4" width="7.33333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.8888888888889" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.1111111111111" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.2592592592593" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2">
+        <v>12612312</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="2">
-        <v>12612312</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3678,74 +3681,124 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12712312</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="2">
-        <v>12712312</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:8">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="6">
+        <v>12812312</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="6">
-        <v>12812312</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="6">
+      <c r="F5" s="6">
         <v>12912312</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="G5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="2">
+        <v>32132132</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3763,8 +3816,8 @@
   <sheetPr/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.8888888888889" defaultRowHeight="14.4"/>
@@ -3794,55 +3847,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3853,13 +3906,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G2">
         <v>12412412</v>
@@ -3868,34 +3921,34 @@
         <v>8238932</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L2">
         <v>12312312</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q2">
         <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3906,13 +3959,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G3">
         <v>12412415</v>
@@ -3921,34 +3974,34 @@
         <v>8238934</v>
       </c>
       <c r="I3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L3">
         <v>12312312</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q3">
         <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3959,13 +4012,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G4" s="5">
         <v>12512512</v>
@@ -3974,34 +4027,34 @@
         <v>8348573</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L4" s="5">
         <v>22334455</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="5">
         <v>456</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4012,13 +4065,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G5" s="5">
         <v>12512513</v>
@@ -4027,34 +4080,34 @@
         <v>8348574</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L5" s="5">
         <v>22334455</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="5">
         <v>456</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4065,13 +4118,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G6" s="5">
         <v>12612612</v>
@@ -4080,34 +4133,34 @@
         <v>8234567</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L6" s="5">
         <v>33445566</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="5">
         <v>789</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4118,13 +4171,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G7" s="5">
         <v>12612613</v>
@@ -4133,34 +4186,34 @@
         <v>8234568</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L7" s="5">
         <v>33445566</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="5">
         <v>789</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4171,13 +4224,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G8" s="5">
         <v>12712712</v>
@@ -4186,34 +4239,34 @@
         <v>8456789</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L8" s="5">
         <v>44556677</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="5">
         <v>101</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4224,13 +4277,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G9" s="5">
         <v>12712713</v>
@@ -4239,34 +4292,34 @@
         <v>8456790</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L9" s="5">
         <v>44556677</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="Q9" s="5">
         <v>101</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4283,8 +4336,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4302,16 +4355,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4328,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4345,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4362,7 +4415,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4379,7 +4432,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4396,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4413,7 +4466,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4430,7 +4483,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4447,7 +4500,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
